--- a/1 - Scenario Processing/Annual Service Area Demand Scenarios/Output/MI_AllFactors.xlsx
+++ b/1 - Scenario Processing/Annual Service Area Demand Scenarios/Output/MI_AllFactors.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t xml:space="preserve">MI_SA_2015</t>
   </si>
@@ -23,22 +23,22 @@
     <t xml:space="preserve">MI_SA_PCDD_2015</t>
   </si>
   <si>
-    <t xml:space="preserve">MI_SA_ET15_2015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MI_SA_PCDec_ET15_2015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MI_SA_PCDD_ET15_2015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MI_SA_ETLow_2015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MI_SA_PCDec_ETLow_2015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MI_SA_PCDD_ETLow_2015</t>
+    <t xml:space="preserve">MI_SA_HighET_2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MI_SA_PCDec_HighET_2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MI_SA_PCDD_HighET_2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MI_SA_LowET_2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MI_SA_PCDec_LowET_2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MI_SA_PCDD_LowET_2015</t>
   </si>
   <si>
     <t xml:space="preserve">MI_SA_2070</t>
@@ -50,22 +50,22 @@
     <t xml:space="preserve">MI_SA_PCDD_2070</t>
   </si>
   <si>
-    <t xml:space="preserve">MI_SA_ET15_2070</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MI_SA_PCDec_ET15_2070</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MI_SA_PCDD_ET15_2070</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MI_SA_ETLow_2070</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MI_SA_PCDec_ETLow_2070</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MI_SA_PCDD_ETLow_2070</t>
+    <t xml:space="preserve">MI_SA_HighET_2070</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MI_SA_PCDec_HighET_2070</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MI_SA_PCDD_HighET_2070</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MI_SA_LowET_2070</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MI_SA_PCDec_LowET_2070</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MI_SA_PCDD_LowET_2070</t>
   </si>
   <si>
     <t xml:space="preserve">MI_SA_2150</t>
@@ -77,22 +77,22 @@
     <t xml:space="preserve">MI_SA_PCDD_2150</t>
   </si>
   <si>
-    <t xml:space="preserve">MI_SA_ET15_2150</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MI_SA_PCDec_ET15_2150</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MI_SA_PCDD_ET15_2150</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MI_SA_ETLow_2150</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MI_SA_PCDec_ETLow_2150</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MI_SA_PCDD_ETLow_2150</t>
+    <t xml:space="preserve">MI_SA_HighET_2150</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MI_SA_PCDec_HighET_2150</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MI_SA_PCDD_HighET_2150</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MI_SA_LowET_2150</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MI_SA_PCDec_LowET_2150</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MI_SA_PCDD_LowET_2150</t>
   </si>
   <si>
     <t xml:space="preserve">0</t>
@@ -113,7 +113,7 @@
     <t xml:space="preserve">25</t>
   </si>
   <si>
-    <t xml:space="preserve">35</t>
+    <t xml:space="preserve">40</t>
   </si>
   <si>
     <t xml:space="preserve">Base PC</t>
@@ -125,12 +125,12 @@
     <t xml:space="preserve">Additional 10% Decrease to PC</t>
   </si>
   <si>
+    <t xml:space="preserve">15</t>
+  </si>
+  <si>
     <t xml:space="preserve">6</t>
   </si>
   <si>
-    <t xml:space="preserve">15</t>
-  </si>
-  <si>
     <t xml:space="preserve">Base ET</t>
   </si>
   <si>
@@ -138,6 +138,15 @@
   </si>
   <si>
     <t xml:space="preserve">Highest Emission ET</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2536404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5109197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6965058</t>
   </si>
 </sst>
 </file>
@@ -1050,6 +1059,89 @@
         <v>41</v>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" t="s">
+        <v>42</v>
+      </c>
+      <c r="F8" t="s">
+        <v>42</v>
+      </c>
+      <c r="G8" t="s">
+        <v>42</v>
+      </c>
+      <c r="H8" t="s">
+        <v>42</v>
+      </c>
+      <c r="I8" t="s">
+        <v>42</v>
+      </c>
+      <c r="J8" t="s">
+        <v>43</v>
+      </c>
+      <c r="K8" t="s">
+        <v>43</v>
+      </c>
+      <c r="L8" t="s">
+        <v>43</v>
+      </c>
+      <c r="M8" t="s">
+        <v>43</v>
+      </c>
+      <c r="N8" t="s">
+        <v>43</v>
+      </c>
+      <c r="O8" t="s">
+        <v>43</v>
+      </c>
+      <c r="P8" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>43</v>
+      </c>
+      <c r="R8" t="s">
+        <v>43</v>
+      </c>
+      <c r="S8" t="s">
+        <v>44</v>
+      </c>
+      <c r="T8" t="s">
+        <v>44</v>
+      </c>
+      <c r="U8" t="s">
+        <v>44</v>
+      </c>
+      <c r="V8" t="s">
+        <v>44</v>
+      </c>
+      <c r="W8" t="s">
+        <v>44</v>
+      </c>
+      <c r="X8" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>44</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/1 - Scenario Processing/Annual Service Area Demand Scenarios/Output/MI_AllFactors.xlsx
+++ b/1 - Scenario Processing/Annual Service Area Demand Scenarios/Output/MI_AllFactors.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t xml:space="preserve">MI_SA_2015</t>
   </si>
@@ -123,9 +123,6 @@
   </si>
   <si>
     <t xml:space="preserve">Additional 10% Decrease to PC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15</t>
   </si>
   <si>
     <t xml:space="preserve">6</t>
@@ -904,23 +901,23 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" t="s">
         <v>37</v>
       </c>
-      <c r="E6" t="s">
+      <c r="H6" t="s">
         <v>37</v>
       </c>
-      <c r="F6" t="s">
+      <c r="I6" t="s">
         <v>37</v>
       </c>
-      <c r="G6" t="s">
-        <v>38</v>
-      </c>
-      <c r="H6" t="s">
-        <v>38</v>
-      </c>
-      <c r="I6" t="s">
-        <v>38</v>
-      </c>
       <c r="J6" t="s">
         <v>27</v>
       </c>
@@ -931,23 +928,23 @@
         <v>27</v>
       </c>
       <c r="M6" t="s">
+        <v>28</v>
+      </c>
+      <c r="N6" t="s">
+        <v>28</v>
+      </c>
+      <c r="O6" t="s">
+        <v>28</v>
+      </c>
+      <c r="P6" t="s">
         <v>37</v>
       </c>
-      <c r="N6" t="s">
+      <c r="Q6" t="s">
         <v>37</v>
       </c>
-      <c r="O6" t="s">
+      <c r="R6" t="s">
         <v>37</v>
       </c>
-      <c r="P6" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>38</v>
-      </c>
-      <c r="R6" t="s">
-        <v>38</v>
-      </c>
       <c r="S6" t="s">
         <v>27</v>
       </c>
@@ -958,188 +955,188 @@
         <v>27</v>
       </c>
       <c r="V6" t="s">
+        <v>28</v>
+      </c>
+      <c r="W6" t="s">
+        <v>28</v>
+      </c>
+      <c r="X6" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y6" t="s">
         <v>37</v>
       </c>
-      <c r="W6" t="s">
+      <c r="Z6" t="s">
         <v>37</v>
       </c>
-      <c r="X6" t="s">
+      <c r="AA6" t="s">
         <v>37</v>
-      </c>
-      <c r="Y6" t="s">
-        <v>38</v>
-      </c>
-      <c r="Z6" t="s">
-        <v>38</v>
-      </c>
-      <c r="AA6" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" t="s">
         <v>39</v>
       </c>
-      <c r="B7" t="s">
+      <c r="E7" t="s">
         <v>39</v>
       </c>
-      <c r="C7" t="s">
+      <c r="F7" t="s">
         <v>39</v>
       </c>
-      <c r="D7" t="s">
+      <c r="G7" t="s">
         <v>40</v>
       </c>
-      <c r="E7" t="s">
+      <c r="H7" t="s">
         <v>40</v>
       </c>
-      <c r="F7" t="s">
+      <c r="I7" t="s">
         <v>40</v>
       </c>
-      <c r="G7" t="s">
-        <v>41</v>
-      </c>
-      <c r="H7" t="s">
-        <v>41</v>
-      </c>
-      <c r="I7" t="s">
-        <v>41</v>
-      </c>
       <c r="J7" t="s">
+        <v>38</v>
+      </c>
+      <c r="K7" t="s">
+        <v>38</v>
+      </c>
+      <c r="L7" t="s">
+        <v>38</v>
+      </c>
+      <c r="M7" t="s">
         <v>39</v>
       </c>
-      <c r="K7" t="s">
+      <c r="N7" t="s">
         <v>39</v>
       </c>
-      <c r="L7" t="s">
+      <c r="O7" t="s">
         <v>39</v>
       </c>
-      <c r="M7" t="s">
+      <c r="P7" t="s">
         <v>40</v>
       </c>
-      <c r="N7" t="s">
+      <c r="Q7" t="s">
         <v>40</v>
       </c>
-      <c r="O7" t="s">
+      <c r="R7" t="s">
         <v>40</v>
       </c>
-      <c r="P7" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>41</v>
-      </c>
-      <c r="R7" t="s">
-        <v>41</v>
-      </c>
       <c r="S7" t="s">
+        <v>38</v>
+      </c>
+      <c r="T7" t="s">
+        <v>38</v>
+      </c>
+      <c r="U7" t="s">
+        <v>38</v>
+      </c>
+      <c r="V7" t="s">
         <v>39</v>
       </c>
-      <c r="T7" t="s">
+      <c r="W7" t="s">
         <v>39</v>
       </c>
-      <c r="U7" t="s">
+      <c r="X7" t="s">
         <v>39</v>
       </c>
-      <c r="V7" t="s">
+      <c r="Y7" t="s">
         <v>40</v>
       </c>
-      <c r="W7" t="s">
+      <c r="Z7" t="s">
         <v>40</v>
       </c>
-      <c r="X7" t="s">
+      <c r="AA7" t="s">
         <v>40</v>
-      </c>
-      <c r="Y7" t="s">
-        <v>41</v>
-      </c>
-      <c r="Z7" t="s">
-        <v>41</v>
-      </c>
-      <c r="AA7" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F8" t="s">
+        <v>41</v>
+      </c>
+      <c r="G8" t="s">
+        <v>41</v>
+      </c>
+      <c r="H8" t="s">
+        <v>41</v>
+      </c>
+      <c r="I8" t="s">
+        <v>41</v>
+      </c>
+      <c r="J8" t="s">
         <v>42</v>
       </c>
-      <c r="B8" t="s">
+      <c r="K8" t="s">
         <v>42</v>
       </c>
-      <c r="C8" t="s">
+      <c r="L8" t="s">
         <v>42</v>
       </c>
-      <c r="D8" t="s">
+      <c r="M8" t="s">
         <v>42</v>
       </c>
-      <c r="E8" t="s">
+      <c r="N8" t="s">
         <v>42</v>
       </c>
-      <c r="F8" t="s">
+      <c r="O8" t="s">
         <v>42</v>
       </c>
-      <c r="G8" t="s">
+      <c r="P8" t="s">
         <v>42</v>
       </c>
-      <c r="H8" t="s">
+      <c r="Q8" t="s">
         <v>42</v>
       </c>
-      <c r="I8" t="s">
+      <c r="R8" t="s">
         <v>42</v>
       </c>
-      <c r="J8" t="s">
+      <c r="S8" t="s">
         <v>43</v>
       </c>
-      <c r="K8" t="s">
+      <c r="T8" t="s">
         <v>43</v>
       </c>
-      <c r="L8" t="s">
+      <c r="U8" t="s">
         <v>43</v>
       </c>
-      <c r="M8" t="s">
+      <c r="V8" t="s">
         <v>43</v>
       </c>
-      <c r="N8" t="s">
+      <c r="W8" t="s">
         <v>43</v>
       </c>
-      <c r="O8" t="s">
+      <c r="X8" t="s">
         <v>43</v>
       </c>
-      <c r="P8" t="s">
+      <c r="Y8" t="s">
         <v>43</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="Z8" t="s">
         <v>43</v>
       </c>
-      <c r="R8" t="s">
+      <c r="AA8" t="s">
         <v>43</v>
-      </c>
-      <c r="S8" t="s">
-        <v>44</v>
-      </c>
-      <c r="T8" t="s">
-        <v>44</v>
-      </c>
-      <c r="U8" t="s">
-        <v>44</v>
-      </c>
-      <c r="V8" t="s">
-        <v>44</v>
-      </c>
-      <c r="W8" t="s">
-        <v>44</v>
-      </c>
-      <c r="X8" t="s">
-        <v>44</v>
-      </c>
-      <c r="Y8" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z8" t="s">
-        <v>44</v>
-      </c>
-      <c r="AA8" t="s">
-        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/1 - Scenario Processing/Annual Service Area Demand Scenarios/Output/MI_AllFactors.xlsx
+++ b/1 - Scenario Processing/Annual Service Area Demand Scenarios/Output/MI_AllFactors.xlsx
@@ -32,13 +32,13 @@
     <t xml:space="preserve">MI_SA_PCDD_HighET_2015</t>
   </si>
   <si>
-    <t xml:space="preserve">MI_SA_LowET_2015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MI_SA_PCDec_LowET_2015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MI_SA_PCDD_LowET_2015</t>
+    <t xml:space="preserve">MI_SA_ET_Low_2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MI_SA_PCDec_ET_Low_2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MI_SA_PCDD_ET_Low_2015</t>
   </si>
   <si>
     <t xml:space="preserve">MI_SA_2070</t>
@@ -59,13 +59,13 @@
     <t xml:space="preserve">MI_SA_PCDD_HighET_2070</t>
   </si>
   <si>
-    <t xml:space="preserve">MI_SA_LowET_2070</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MI_SA_PCDec_LowET_2070</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MI_SA_PCDD_LowET_2070</t>
+    <t xml:space="preserve">MI_SA_ET_Low_2070</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MI_SA_PCDec_ET_Low_2070</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MI_SA_PCDD_ET_Low_2070</t>
   </si>
   <si>
     <t xml:space="preserve">MI_SA_2150</t>
@@ -86,13 +86,13 @@
     <t xml:space="preserve">MI_SA_PCDD_HighET_2150</t>
   </si>
   <si>
-    <t xml:space="preserve">MI_SA_LowET_2150</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MI_SA_PCDec_LowET_2150</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MI_SA_PCDD_LowET_2150</t>
+    <t xml:space="preserve">MI_SA_ET_Low_2150</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MI_SA_PCDec_ET_Low_2150</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MI_SA_PCDD_ET_Low_2150</t>
   </si>
   <si>
     <t xml:space="preserve">0</t>
@@ -131,10 +131,10 @@
     <t xml:space="preserve">Base ET</t>
   </si>
   <si>
-    <t xml:space="preserve">Low Emission ET</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Highest Emission ET</t>
+    <t xml:space="preserve">Low Emissions ET</t>
+  </si>
+  <si>
+    <t xml:space="preserve">High Emissions ET</t>
   </si>
   <si>
     <t xml:space="preserve">2536404</t>

--- a/1 - Scenario Processing/Annual Service Area Demand Scenarios/Output/MI_AllFactors.xlsx
+++ b/1 - Scenario Processing/Annual Service Area Demand Scenarios/Output/MI_AllFactors.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
   <si>
     <t xml:space="preserve">MI_SA_2015</t>
   </si>
@@ -116,6 +116,12 @@
     <t xml:space="preserve">40</t>
   </si>
   <si>
+    <t xml:space="preserve">12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17</t>
+  </si>
+  <si>
     <t xml:space="preserve">Base PC</t>
   </si>
   <si>
@@ -135,6 +141,24 @@
   </si>
   <si>
     <t xml:space="preserve">High Emissions ET</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9142</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5485</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16237</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22331</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13398</t>
   </si>
   <si>
     <t xml:space="preserve">2536404</t>
@@ -809,262 +833,262 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" t="s">
         <v>34</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>35</v>
       </c>
-      <c r="C5" t="s">
-        <v>36</v>
-      </c>
       <c r="D5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" t="s">
         <v>34</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>35</v>
       </c>
-      <c r="F5" t="s">
-        <v>36</v>
-      </c>
       <c r="G5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" t="s">
         <v>34</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>35</v>
       </c>
-      <c r="I5" t="s">
-        <v>36</v>
-      </c>
       <c r="J5" t="s">
+        <v>27</v>
+      </c>
+      <c r="K5" t="s">
         <v>34</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>35</v>
       </c>
-      <c r="L5" t="s">
-        <v>36</v>
-      </c>
       <c r="M5" t="s">
+        <v>27</v>
+      </c>
+      <c r="N5" t="s">
         <v>34</v>
       </c>
-      <c r="N5" t="s">
+      <c r="O5" t="s">
         <v>35</v>
       </c>
-      <c r="O5" t="s">
-        <v>36</v>
-      </c>
       <c r="P5" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q5" t="s">
         <v>34</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="R5" t="s">
         <v>35</v>
       </c>
-      <c r="R5" t="s">
-        <v>36</v>
-      </c>
       <c r="S5" t="s">
+        <v>27</v>
+      </c>
+      <c r="T5" t="s">
         <v>34</v>
       </c>
-      <c r="T5" t="s">
+      <c r="U5" t="s">
         <v>35</v>
       </c>
-      <c r="U5" t="s">
-        <v>36</v>
-      </c>
       <c r="V5" t="s">
+        <v>27</v>
+      </c>
+      <c r="W5" t="s">
         <v>34</v>
       </c>
-      <c r="W5" t="s">
+      <c r="X5" t="s">
         <v>35</v>
       </c>
-      <c r="X5" t="s">
-        <v>36</v>
-      </c>
       <c r="Y5" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z5" t="s">
         <v>34</v>
       </c>
-      <c r="Z5" t="s">
+      <c r="AA5" t="s">
         <v>35</v>
-      </c>
-      <c r="AA5" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="D6" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="E6" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="F6" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="G6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H6" t="s">
         <v>37</v>
       </c>
       <c r="I6" t="s">
+        <v>38</v>
+      </c>
+      <c r="J6" t="s">
+        <v>36</v>
+      </c>
+      <c r="K6" t="s">
         <v>37</v>
       </c>
-      <c r="J6" t="s">
-        <v>27</v>
-      </c>
-      <c r="K6" t="s">
-        <v>27</v>
-      </c>
       <c r="L6" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="M6" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="N6" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="O6" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="P6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Q6" t="s">
         <v>37</v>
       </c>
       <c r="R6" t="s">
+        <v>38</v>
+      </c>
+      <c r="S6" t="s">
+        <v>36</v>
+      </c>
+      <c r="T6" t="s">
         <v>37</v>
       </c>
-      <c r="S6" t="s">
-        <v>27</v>
-      </c>
-      <c r="T6" t="s">
-        <v>27</v>
-      </c>
       <c r="U6" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="V6" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="W6" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="X6" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="Y6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Z6" t="s">
         <v>37</v>
       </c>
       <c r="AA6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="B7" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="C7" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="D7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7" t="s">
         <v>39</v>
       </c>
-      <c r="E7" t="s">
+      <c r="H7" t="s">
         <v>39</v>
       </c>
-      <c r="F7" t="s">
+      <c r="I7" t="s">
         <v>39</v>
       </c>
-      <c r="G7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H7" t="s">
-        <v>40</v>
-      </c>
-      <c r="I7" t="s">
-        <v>40</v>
-      </c>
       <c r="J7" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="K7" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="L7" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="M7" t="s">
+        <v>28</v>
+      </c>
+      <c r="N7" t="s">
+        <v>28</v>
+      </c>
+      <c r="O7" t="s">
+        <v>28</v>
+      </c>
+      <c r="P7" t="s">
         <v>39</v>
       </c>
-      <c r="N7" t="s">
+      <c r="Q7" t="s">
         <v>39</v>
       </c>
-      <c r="O7" t="s">
+      <c r="R7" t="s">
         <v>39</v>
       </c>
-      <c r="P7" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>40</v>
-      </c>
-      <c r="R7" t="s">
-        <v>40</v>
-      </c>
       <c r="S7" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="T7" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="U7" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="V7" t="s">
+        <v>28</v>
+      </c>
+      <c r="W7" t="s">
+        <v>28</v>
+      </c>
+      <c r="X7" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y7" t="s">
         <v>39</v>
       </c>
-      <c r="W7" t="s">
+      <c r="Z7" t="s">
         <v>39</v>
       </c>
-      <c r="X7" t="s">
+      <c r="AA7" t="s">
         <v>39</v>
-      </c>
-      <c r="Y7" t="s">
-        <v>40</v>
-      </c>
-      <c r="Z7" t="s">
-        <v>40</v>
-      </c>
-      <c r="AA7" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D8" t="s">
         <v>41</v>
@@ -1076,31 +1100,31 @@
         <v>41</v>
       </c>
       <c r="G8" t="s">
+        <v>42</v>
+      </c>
+      <c r="H8" t="s">
+        <v>42</v>
+      </c>
+      <c r="I8" t="s">
+        <v>42</v>
+      </c>
+      <c r="J8" t="s">
+        <v>40</v>
+      </c>
+      <c r="K8" t="s">
+        <v>40</v>
+      </c>
+      <c r="L8" t="s">
+        <v>40</v>
+      </c>
+      <c r="M8" t="s">
         <v>41</v>
       </c>
-      <c r="H8" t="s">
+      <c r="N8" t="s">
         <v>41</v>
       </c>
-      <c r="I8" t="s">
+      <c r="O8" t="s">
         <v>41</v>
-      </c>
-      <c r="J8" t="s">
-        <v>42</v>
-      </c>
-      <c r="K8" t="s">
-        <v>42</v>
-      </c>
-      <c r="L8" t="s">
-        <v>42</v>
-      </c>
-      <c r="M8" t="s">
-        <v>42</v>
-      </c>
-      <c r="N8" t="s">
-        <v>42</v>
-      </c>
-      <c r="O8" t="s">
-        <v>42</v>
       </c>
       <c r="P8" t="s">
         <v>42</v>
@@ -1112,31 +1136,197 @@
         <v>42</v>
       </c>
       <c r="S8" t="s">
+        <v>40</v>
+      </c>
+      <c r="T8" t="s">
+        <v>40</v>
+      </c>
+      <c r="U8" t="s">
+        <v>40</v>
+      </c>
+      <c r="V8" t="s">
+        <v>41</v>
+      </c>
+      <c r="W8" t="s">
+        <v>41</v>
+      </c>
+      <c r="X8" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
         <v>43</v>
       </c>
-      <c r="T8" t="s">
+      <c r="E9" t="s">
         <v>43</v>
       </c>
-      <c r="U8" t="s">
+      <c r="F9" t="s">
         <v>43</v>
       </c>
-      <c r="V8" t="s">
-        <v>43</v>
-      </c>
-      <c r="W8" t="s">
-        <v>43</v>
-      </c>
-      <c r="X8" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y8" t="s">
-        <v>43</v>
-      </c>
-      <c r="Z8" t="s">
-        <v>43</v>
-      </c>
-      <c r="AA8" t="s">
-        <v>43</v>
+      <c r="G9" t="s">
+        <v>44</v>
+      </c>
+      <c r="H9" t="s">
+        <v>44</v>
+      </c>
+      <c r="I9" t="s">
+        <v>44</v>
+      </c>
+      <c r="J9" t="s">
+        <v>27</v>
+      </c>
+      <c r="K9" t="s">
+        <v>27</v>
+      </c>
+      <c r="L9" t="s">
+        <v>27</v>
+      </c>
+      <c r="M9" t="s">
+        <v>45</v>
+      </c>
+      <c r="N9" t="s">
+        <v>45</v>
+      </c>
+      <c r="O9" t="s">
+        <v>45</v>
+      </c>
+      <c r="P9" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>46</v>
+      </c>
+      <c r="R9" t="s">
+        <v>46</v>
+      </c>
+      <c r="S9" t="s">
+        <v>27</v>
+      </c>
+      <c r="T9" t="s">
+        <v>27</v>
+      </c>
+      <c r="U9" t="s">
+        <v>27</v>
+      </c>
+      <c r="V9" t="s">
+        <v>47</v>
+      </c>
+      <c r="W9" t="s">
+        <v>47</v>
+      </c>
+      <c r="X9" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>49</v>
+      </c>
+      <c r="B10" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D10" t="s">
+        <v>49</v>
+      </c>
+      <c r="E10" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" t="s">
+        <v>49</v>
+      </c>
+      <c r="G10" t="s">
+        <v>49</v>
+      </c>
+      <c r="H10" t="s">
+        <v>49</v>
+      </c>
+      <c r="I10" t="s">
+        <v>49</v>
+      </c>
+      <c r="J10" t="s">
+        <v>50</v>
+      </c>
+      <c r="K10" t="s">
+        <v>50</v>
+      </c>
+      <c r="L10" t="s">
+        <v>50</v>
+      </c>
+      <c r="M10" t="s">
+        <v>50</v>
+      </c>
+      <c r="N10" t="s">
+        <v>50</v>
+      </c>
+      <c r="O10" t="s">
+        <v>50</v>
+      </c>
+      <c r="P10" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>50</v>
+      </c>
+      <c r="R10" t="s">
+        <v>50</v>
+      </c>
+      <c r="S10" t="s">
+        <v>51</v>
+      </c>
+      <c r="T10" t="s">
+        <v>51</v>
+      </c>
+      <c r="U10" t="s">
+        <v>51</v>
+      </c>
+      <c r="V10" t="s">
+        <v>51</v>
+      </c>
+      <c r="W10" t="s">
+        <v>51</v>
+      </c>
+      <c r="X10" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/1 - Scenario Processing/Annual Service Area Demand Scenarios/Output/MI_AllFactors.xlsx
+++ b/1 - Scenario Processing/Annual Service Area Demand Scenarios/Output/MI_AllFactors.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
   <si>
     <t xml:space="preserve">MI_SA_2015</t>
   </si>
@@ -116,10 +116,22 @@
     <t xml:space="preserve">40</t>
   </si>
   <si>
-    <t xml:space="preserve">12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17</t>
+    <t xml:space="preserve">125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">98</t>
+  </si>
+  <si>
+    <t xml:space="preserve">86</t>
+  </si>
+  <si>
+    <t xml:space="preserve">117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">91</t>
+  </si>
+  <si>
+    <t xml:space="preserve">80</t>
   </si>
   <si>
     <t xml:space="preserve">Base PC</t>
@@ -833,168 +845,168 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="B5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G5" t="s">
+        <v>37</v>
+      </c>
+      <c r="H5" t="s">
+        <v>38</v>
+      </c>
+      <c r="I5" t="s">
+        <v>39</v>
+      </c>
+      <c r="J5" t="s">
         <v>34</v>
       </c>
-      <c r="C5" t="s">
+      <c r="K5" t="s">
         <v>35</v>
       </c>
-      <c r="D5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="L5" t="s">
+        <v>36</v>
+      </c>
+      <c r="M5" t="s">
+        <v>37</v>
+      </c>
+      <c r="N5" t="s">
+        <v>38</v>
+      </c>
+      <c r="O5" t="s">
+        <v>39</v>
+      </c>
+      <c r="P5" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>38</v>
+      </c>
+      <c r="R5" t="s">
+        <v>39</v>
+      </c>
+      <c r="S5" t="s">
         <v>34</v>
       </c>
-      <c r="F5" t="s">
+      <c r="T5" t="s">
         <v>35</v>
       </c>
-      <c r="G5" t="s">
-        <v>27</v>
-      </c>
-      <c r="H5" t="s">
-        <v>34</v>
-      </c>
-      <c r="I5" t="s">
-        <v>35</v>
-      </c>
-      <c r="J5" t="s">
-        <v>27</v>
-      </c>
-      <c r="K5" t="s">
-        <v>34</v>
-      </c>
-      <c r="L5" t="s">
-        <v>35</v>
-      </c>
-      <c r="M5" t="s">
-        <v>27</v>
-      </c>
-      <c r="N5" t="s">
-        <v>34</v>
-      </c>
-      <c r="O5" t="s">
-        <v>35</v>
-      </c>
-      <c r="P5" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>34</v>
-      </c>
-      <c r="R5" t="s">
-        <v>35</v>
-      </c>
-      <c r="S5" t="s">
-        <v>27</v>
-      </c>
-      <c r="T5" t="s">
-        <v>34</v>
-      </c>
       <c r="U5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="V5" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="W5" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="X5" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="Y5" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="Z5" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="AA5" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B6" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C6" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D6" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="E6" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F6" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G6" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H6" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="I6" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="J6" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="K6" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="L6" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="M6" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="N6" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="O6" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="P6" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="Q6" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="R6" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="S6" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="T6" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="U6" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="V6" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="W6" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="X6" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="Y6" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="Z6" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="AA6" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7">
@@ -1017,13 +1029,13 @@
         <v>28</v>
       </c>
       <c r="G7" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H7" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="I7" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="J7" t="s">
         <v>27</v>
@@ -1044,13 +1056,13 @@
         <v>28</v>
       </c>
       <c r="P7" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="Q7" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="R7" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="S7" t="s">
         <v>27</v>
@@ -1071,96 +1083,96 @@
         <v>28</v>
       </c>
       <c r="Y7" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="Z7" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="AA7" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B8" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C8" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D8" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="E8" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="G8" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="H8" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="I8" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="J8" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="K8" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="L8" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="M8" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="N8" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="O8" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="P8" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="Q8" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="R8" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="S8" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="T8" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="U8" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="V8" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="W8" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="X8" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="Y8" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="Z8" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="AA8" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9">
@@ -1174,22 +1186,22 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E9" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="F9" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="G9" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="H9" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="J9" t="s">
         <v>27</v>
@@ -1201,22 +1213,22 @@
         <v>27</v>
       </c>
       <c r="M9" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="N9" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="O9" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="P9" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="Q9" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="R9" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="S9" t="s">
         <v>27</v>
@@ -1228,105 +1240,105 @@
         <v>27</v>
       </c>
       <c r="V9" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="W9" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="X9" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="Y9" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="Z9" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="AA9" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B10" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C10" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="D10" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="E10" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="F10" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="G10" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="H10" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="I10" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="J10" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="K10" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="L10" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="M10" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="N10" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="O10" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="P10" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="Q10" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="R10" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="S10" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="T10" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="U10" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="V10" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="W10" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="X10" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="Y10" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="Z10" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="AA10" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/1 - Scenario Processing/Annual Service Area Demand Scenarios/Output/MI_AllFactors.xlsx
+++ b/1 - Scenario Processing/Annual Service Area Demand Scenarios/Output/MI_AllFactors.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
   <si>
     <t xml:space="preserve">MI_SA_2015</t>
   </si>
@@ -41,6 +41,15 @@
     <t xml:space="preserve">MI_SA_PCDD_ET_Low_2015</t>
   </si>
   <si>
+    <t xml:space="preserve">MI_SA_Precip_2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MI_SA_PCDec_Precip_2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MI_SA_PCDD_Precip_2015</t>
+  </si>
+  <si>
     <t xml:space="preserve">MI_SA_2070</t>
   </si>
   <si>
@@ -68,6 +77,15 @@
     <t xml:space="preserve">MI_SA_PCDD_ET_Low_2070</t>
   </si>
   <si>
+    <t xml:space="preserve">MI_SA_Precip_2070</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MI_SA_PCDec_Precip_2070</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MI_SA_PCDD_Precip_2070</t>
+  </si>
+  <si>
     <t xml:space="preserve">MI_SA_2150</t>
   </si>
   <si>
@@ -95,6 +113,15 @@
     <t xml:space="preserve">MI_SA_PCDD_ET_Low_2150</t>
   </si>
   <si>
+    <t xml:space="preserve">MI_SA_Precip_2150</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MI_SA_PCDec_Precip_2150</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MI_SA_PCDD_Precip_2150</t>
+  </si>
+  <si>
     <t xml:space="preserve">0</t>
   </si>
   <si>
@@ -146,6 +173,9 @@
     <t xml:space="preserve">6</t>
   </si>
   <si>
+    <t xml:space="preserve">-5</t>
+  </si>
+  <si>
     <t xml:space="preserve">Base ET</t>
   </si>
   <si>
@@ -155,22 +185,46 @@
     <t xml:space="preserve">High Emissions ET</t>
   </si>
   <si>
+    <t xml:space="preserve">Increased Precip</t>
+  </si>
+  <si>
     <t xml:space="preserve">9142</t>
   </si>
   <si>
     <t xml:space="preserve">5485</t>
   </si>
   <si>
+    <t xml:space="preserve">-4571</t>
+  </si>
+  <si>
     <t xml:space="preserve">16237</t>
   </si>
   <si>
     <t xml:space="preserve">9742</t>
   </si>
   <si>
-    <t xml:space="preserve">22331</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13398</t>
+    <t xml:space="preserve">-8118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3051.39605677528</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2333.95758232402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2028.81797664649</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2988.9265312035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2292.72769544665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1993.8350423263</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2817.13533588112</t>
   </si>
   <si>
     <t xml:space="preserve">2536404</t>
@@ -593,752 +647,1022 @@
       <c r="AA1" t="s">
         <v>26</v>
       </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="C2" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="D2" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="E2" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="F2" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="G2" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="H2" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="I2" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="J2" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="K2" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="L2" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="M2" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="N2" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="O2" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="P2" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="Q2" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="R2" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="S2" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="T2" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="U2" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="V2" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="W2" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="X2" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="Y2" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="Z2" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="AA2" t="s">
-        <v>29</v>
+        <v>38</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="B3" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="C3" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="D3" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="E3" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="F3" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="G3" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="H3" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="I3" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="J3" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="K3" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="L3" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="M3" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="N3" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="O3" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="P3" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="Q3" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="R3" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="S3" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="T3" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="U3" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="V3" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="W3" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="X3" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="Y3" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="Z3" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="AA3" t="s">
-        <v>31</v>
+        <v>40</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="C4" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="D4" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="E4" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="F4" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="G4" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="H4" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="I4" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="J4" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="K4" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="L4" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="M4" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="N4" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="O4" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="P4" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="Q4" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="R4" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="S4" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="T4" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="U4" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="V4" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="W4" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="X4" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="Y4" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="Z4" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="AA4" t="s">
-        <v>33</v>
+        <v>42</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>42</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>42</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>36</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>41</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="B5" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="C5" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="D5" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="E5" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="F5" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="G5" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="H5" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="I5" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="J5" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="K5" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="L5" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="M5" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="N5" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="O5" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="P5" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="Q5" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="R5" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="S5" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="T5" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="U5" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="V5" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="W5" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="X5" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="Y5" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="Z5" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="AA5" t="s">
-        <v>39</v>
+        <v>48</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>44</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AG5" t="s">
+        <v>48</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ5" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="B6" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="C6" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="D6" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="E6" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F6" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="G6" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="H6" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="I6" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="J6" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="K6" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="L6" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="M6" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="N6" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="O6" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="P6" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="Q6" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="R6" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="S6" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="T6" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="U6" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="V6" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="W6" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="X6" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="Y6" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="Z6" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AA6" t="s">
-        <v>42</v>
+        <v>51</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>50</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>51</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>49</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>50</v>
+      </c>
+      <c r="AG6" t="s">
+        <v>51</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>49</v>
+      </c>
+      <c r="AI6" t="s">
+        <v>50</v>
+      </c>
+      <c r="AJ6" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="D7" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="E7" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="F7" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="G7" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="H7" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="I7" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="J7" t="s">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="K7" t="s">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="L7" t="s">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="M7" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="N7" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="O7" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="P7" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="Q7" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="R7" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="S7" t="s">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="T7" t="s">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="U7" t="s">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="V7" t="s">
-        <v>28</v>
+        <v>53</v>
       </c>
       <c r="W7" t="s">
-        <v>28</v>
+        <v>53</v>
       </c>
       <c r="X7" t="s">
-        <v>28</v>
+        <v>53</v>
       </c>
       <c r="Y7" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="Z7" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="AA7" t="s">
-        <v>43</v>
+        <v>36</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>52</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>52</v>
+      </c>
+      <c r="AG7" t="s">
+        <v>52</v>
+      </c>
+      <c r="AH7" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI7" t="s">
+        <v>53</v>
+      </c>
+      <c r="AJ7" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="B8" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="C8" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="D8" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="E8" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="F8" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="H8" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="I8" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="J8" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="K8" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="L8" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="M8" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="N8" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="O8" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="P8" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="Q8" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="R8" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="S8" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="T8" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="U8" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="V8" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="W8" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="X8" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="Y8" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="Z8" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="AA8" t="s">
-        <v>46</v>
+        <v>54</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>55</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG8" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH8" t="s">
+        <v>57</v>
+      </c>
+      <c r="AI8" t="s">
+        <v>57</v>
+      </c>
+      <c r="AJ8" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="B9" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="D9" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="E9" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="F9" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="G9" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="H9" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="I9" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="J9" t="s">
-        <v>27</v>
+        <v>60</v>
       </c>
       <c r="K9" t="s">
-        <v>27</v>
+        <v>60</v>
       </c>
       <c r="L9" t="s">
-        <v>27</v>
+        <v>60</v>
       </c>
       <c r="M9" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="N9" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="O9" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="P9" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="Q9" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="R9" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="S9" t="s">
-        <v>27</v>
+        <v>62</v>
       </c>
       <c r="T9" t="s">
-        <v>27</v>
+        <v>62</v>
       </c>
       <c r="U9" t="s">
-        <v>27</v>
+        <v>62</v>
       </c>
       <c r="V9" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="W9" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="X9" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="Y9" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="Z9" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="AA9" t="s">
-        <v>52</v>
+        <v>36</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE9" t="s">
+        <v>67</v>
+      </c>
+      <c r="AF9" t="s">
+        <v>68</v>
+      </c>
+      <c r="AG9" t="s">
+        <v>69</v>
+      </c>
+      <c r="AH9" t="s">
+        <v>70</v>
+      </c>
+      <c r="AI9" t="s">
+        <v>65</v>
+      </c>
+      <c r="AJ9" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="B10" t="s">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="C10" t="s">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="D10" t="s">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="E10" t="s">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="F10" t="s">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="G10" t="s">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="H10" t="s">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="I10" t="s">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="J10" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="K10" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="L10" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="M10" t="s">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="N10" t="s">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="O10" t="s">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="P10" t="s">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="Q10" t="s">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="R10" t="s">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="S10" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="T10" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="U10" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="V10" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="W10" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="X10" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="Y10" t="s">
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="Z10" t="s">
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="AA10" t="s">
-        <v>55</v>
+        <v>73</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>73</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>73</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>73</v>
+      </c>
+      <c r="AG10" t="s">
+        <v>73</v>
+      </c>
+      <c r="AH10" t="s">
+        <v>73</v>
+      </c>
+      <c r="AI10" t="s">
+        <v>73</v>
+      </c>
+      <c r="AJ10" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>

--- a/1 - Scenario Processing/Annual Service Area Demand Scenarios/Output/MI_AllFactors.xlsx
+++ b/1 - Scenario Processing/Annual Service Area Demand Scenarios/Output/MI_AllFactors.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
   <si>
     <t xml:space="preserve">MI_SA_2015</t>
   </si>
@@ -41,15 +41,6 @@
     <t xml:space="preserve">MI_SA_PCDD_ET_Low_2015</t>
   </si>
   <si>
-    <t xml:space="preserve">MI_SA_Precip_2015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MI_SA_PCDec_Precip_2015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MI_SA_PCDD_Precip_2015</t>
-  </si>
-  <si>
     <t xml:space="preserve">MI_SA_2070</t>
   </si>
   <si>
@@ -77,15 +68,6 @@
     <t xml:space="preserve">MI_SA_PCDD_ET_Low_2070</t>
   </si>
   <si>
-    <t xml:space="preserve">MI_SA_Precip_2070</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MI_SA_PCDec_Precip_2070</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MI_SA_PCDD_Precip_2070</t>
-  </si>
-  <si>
     <t xml:space="preserve">MI_SA_2150</t>
   </si>
   <si>
@@ -113,15 +95,6 @@
     <t xml:space="preserve">MI_SA_PCDD_ET_Low_2150</t>
   </si>
   <si>
-    <t xml:space="preserve">MI_SA_Precip_2150</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MI_SA_PCDec_Precip_2150</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MI_SA_PCDD_Precip_2150</t>
-  </si>
-  <si>
     <t xml:space="preserve">0</t>
   </si>
   <si>
@@ -173,9 +146,6 @@
     <t xml:space="preserve">6</t>
   </si>
   <si>
-    <t xml:space="preserve">-5</t>
-  </si>
-  <si>
     <t xml:space="preserve">Base ET</t>
   </si>
   <si>
@@ -185,46 +155,22 @@
     <t xml:space="preserve">High Emissions ET</t>
   </si>
   <si>
-    <t xml:space="preserve">Increased Precip</t>
-  </si>
-  <si>
     <t xml:space="preserve">9142</t>
   </si>
   <si>
     <t xml:space="preserve">5485</t>
   </si>
   <si>
-    <t xml:space="preserve">-4571</t>
-  </si>
-  <si>
     <t xml:space="preserve">16237</t>
   </si>
   <si>
     <t xml:space="preserve">9742</t>
   </si>
   <si>
-    <t xml:space="preserve">-8118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3051.39605677528</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2333.95758232402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2028.81797664649</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2988.9265312035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2292.72769544665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1993.8350423263</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2817.13533588112</t>
+    <t xml:space="preserve">22331</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13398</t>
   </si>
   <si>
     <t xml:space="preserve">2536404</t>
@@ -647,1022 +593,752 @@
       <c r="AA1" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AH1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AJ1" t="s">
-        <v>35</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="C2" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="D2" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="E2" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="F2" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="H2" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="I2" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="J2" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="K2" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="L2" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="M2" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="N2" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="O2" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="P2" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="Q2" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="R2" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="S2" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="T2" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="U2" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="V2" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="W2" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="X2" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="Y2" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="Z2" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="AA2" t="s">
-        <v>38</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>38</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>38</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="B3" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="C3" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="D3" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="E3" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="F3" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G3" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="H3" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="I3" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="J3" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="K3" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="L3" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="M3" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="N3" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="O3" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="P3" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="Q3" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="R3" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="S3" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="T3" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="U3" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="V3" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="W3" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="X3" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="Y3" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="Z3" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="AA3" t="s">
-        <v>40</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>36</v>
-      </c>
-      <c r="AC3" t="s">
-        <v>39</v>
-      </c>
-      <c r="AD3" t="s">
-        <v>40</v>
-      </c>
-      <c r="AE3" t="s">
-        <v>36</v>
-      </c>
-      <c r="AF3" t="s">
-        <v>39</v>
-      </c>
-      <c r="AG3" t="s">
-        <v>40</v>
-      </c>
-      <c r="AH3" t="s">
-        <v>36</v>
-      </c>
-      <c r="AI3" t="s">
-        <v>39</v>
-      </c>
-      <c r="AJ3" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="B4" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="C4" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="D4" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="E4" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="F4" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="G4" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="H4" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="I4" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="J4" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="K4" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="L4" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="M4" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="N4" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="O4" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="P4" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="Q4" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="R4" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="S4" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="T4" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="U4" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="V4" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="W4" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="X4" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="Y4" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="Z4" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="AA4" t="s">
-        <v>42</v>
-      </c>
-      <c r="AB4" t="s">
-        <v>36</v>
-      </c>
-      <c r="AC4" t="s">
-        <v>41</v>
-      </c>
-      <c r="AD4" t="s">
-        <v>42</v>
-      </c>
-      <c r="AE4" t="s">
-        <v>36</v>
-      </c>
-      <c r="AF4" t="s">
-        <v>41</v>
-      </c>
-      <c r="AG4" t="s">
-        <v>42</v>
-      </c>
-      <c r="AH4" t="s">
-        <v>36</v>
-      </c>
-      <c r="AI4" t="s">
-        <v>41</v>
-      </c>
-      <c r="AJ4" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="B5" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="C5" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="D5" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="E5" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="F5" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="I5" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="J5" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="K5" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="L5" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="M5" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="N5" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="O5" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="P5" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="Q5" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="R5" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="S5" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="T5" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="U5" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="V5" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="W5" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="X5" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="Y5" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="Z5" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="AA5" t="s">
-        <v>48</v>
-      </c>
-      <c r="AB5" t="s">
-        <v>43</v>
-      </c>
-      <c r="AC5" t="s">
-        <v>44</v>
-      </c>
-      <c r="AD5" t="s">
-        <v>45</v>
-      </c>
-      <c r="AE5" t="s">
-        <v>46</v>
-      </c>
-      <c r="AF5" t="s">
-        <v>47</v>
-      </c>
-      <c r="AG5" t="s">
-        <v>48</v>
-      </c>
-      <c r="AH5" t="s">
-        <v>46</v>
-      </c>
-      <c r="AI5" t="s">
-        <v>47</v>
-      </c>
-      <c r="AJ5" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="B6" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="C6" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="D6" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="E6" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F6" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="G6" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="H6" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="I6" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="J6" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="K6" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="L6" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="M6" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="N6" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="O6" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="P6" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="Q6" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="R6" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="S6" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="T6" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="U6" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="V6" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="W6" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="X6" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="Y6" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="Z6" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AA6" t="s">
-        <v>51</v>
-      </c>
-      <c r="AB6" t="s">
-        <v>49</v>
-      </c>
-      <c r="AC6" t="s">
-        <v>50</v>
-      </c>
-      <c r="AD6" t="s">
-        <v>51</v>
-      </c>
-      <c r="AE6" t="s">
-        <v>49</v>
-      </c>
-      <c r="AF6" t="s">
-        <v>50</v>
-      </c>
-      <c r="AG6" t="s">
-        <v>51</v>
-      </c>
-      <c r="AH6" t="s">
-        <v>49</v>
-      </c>
-      <c r="AI6" t="s">
-        <v>50</v>
-      </c>
-      <c r="AJ6" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="B7" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="C7" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="E7" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="F7" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="G7" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="H7" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="I7" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="J7" t="s">
-        <v>53</v>
+        <v>27</v>
       </c>
       <c r="K7" t="s">
-        <v>53</v>
+        <v>27</v>
       </c>
       <c r="L7" t="s">
-        <v>53</v>
+        <v>27</v>
       </c>
       <c r="M7" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="N7" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="O7" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="P7" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="Q7" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="R7" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="S7" t="s">
-        <v>52</v>
+        <v>27</v>
       </c>
       <c r="T7" t="s">
-        <v>52</v>
+        <v>27</v>
       </c>
       <c r="U7" t="s">
-        <v>52</v>
+        <v>27</v>
       </c>
       <c r="V7" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="W7" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="X7" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="Y7" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="Z7" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="AA7" t="s">
-        <v>36</v>
-      </c>
-      <c r="AB7" t="s">
-        <v>37</v>
-      </c>
-      <c r="AC7" t="s">
-        <v>37</v>
-      </c>
-      <c r="AD7" t="s">
-        <v>37</v>
-      </c>
-      <c r="AE7" t="s">
-        <v>52</v>
-      </c>
-      <c r="AF7" t="s">
-        <v>52</v>
-      </c>
-      <c r="AG7" t="s">
-        <v>52</v>
-      </c>
-      <c r="AH7" t="s">
-        <v>53</v>
-      </c>
-      <c r="AI7" t="s">
-        <v>53</v>
-      </c>
-      <c r="AJ7" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="B8" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="C8" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="D8" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="E8" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="G8" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="H8" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="I8" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="J8" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="K8" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="L8" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="M8" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="N8" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="O8" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="P8" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="Q8" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="R8" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="S8" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="T8" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="U8" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="V8" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="W8" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="X8" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="Y8" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="Z8" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="AA8" t="s">
-        <v>54</v>
-      </c>
-      <c r="AB8" t="s">
-        <v>55</v>
-      </c>
-      <c r="AC8" t="s">
-        <v>55</v>
-      </c>
-      <c r="AD8" t="s">
-        <v>55</v>
-      </c>
-      <c r="AE8" t="s">
-        <v>56</v>
-      </c>
-      <c r="AF8" t="s">
-        <v>56</v>
-      </c>
-      <c r="AG8" t="s">
-        <v>56</v>
-      </c>
-      <c r="AH8" t="s">
-        <v>57</v>
-      </c>
-      <c r="AI8" t="s">
-        <v>57</v>
-      </c>
-      <c r="AJ8" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="B9" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="C9" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="E9" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="F9" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="G9" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="H9" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="J9" t="s">
-        <v>60</v>
+        <v>27</v>
       </c>
       <c r="K9" t="s">
-        <v>60</v>
+        <v>27</v>
       </c>
       <c r="L9" t="s">
-        <v>60</v>
+        <v>27</v>
       </c>
       <c r="M9" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="N9" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="O9" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="P9" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="Q9" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="R9" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="S9" t="s">
-        <v>62</v>
+        <v>27</v>
       </c>
       <c r="T9" t="s">
-        <v>62</v>
+        <v>27</v>
       </c>
       <c r="U9" t="s">
-        <v>62</v>
+        <v>27</v>
       </c>
       <c r="V9" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="W9" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="X9" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="Y9" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="Z9" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="AA9" t="s">
-        <v>36</v>
-      </c>
-      <c r="AB9" t="s">
-        <v>64</v>
-      </c>
-      <c r="AC9" t="s">
-        <v>65</v>
-      </c>
-      <c r="AD9" t="s">
-        <v>66</v>
-      </c>
-      <c r="AE9" t="s">
-        <v>67</v>
-      </c>
-      <c r="AF9" t="s">
-        <v>68</v>
-      </c>
-      <c r="AG9" t="s">
-        <v>69</v>
-      </c>
-      <c r="AH9" t="s">
-        <v>70</v>
-      </c>
-      <c r="AI9" t="s">
-        <v>65</v>
-      </c>
-      <c r="AJ9" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="B10" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="C10" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="D10" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="E10" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="F10" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="G10" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="H10" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="I10" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="J10" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="K10" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="L10" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="M10" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="N10" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="O10" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="P10" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="Q10" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="R10" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="S10" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="T10" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="U10" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="V10" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="W10" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="X10" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="Y10" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="Z10" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="AA10" t="s">
-        <v>73</v>
-      </c>
-      <c r="AB10" t="s">
-        <v>73</v>
-      </c>
-      <c r="AC10" t="s">
-        <v>73</v>
-      </c>
-      <c r="AD10" t="s">
-        <v>73</v>
-      </c>
-      <c r="AE10" t="s">
-        <v>73</v>
-      </c>
-      <c r="AF10" t="s">
-        <v>73</v>
-      </c>
-      <c r="AG10" t="s">
-        <v>73</v>
-      </c>
-      <c r="AH10" t="s">
-        <v>73</v>
-      </c>
-      <c r="AI10" t="s">
-        <v>73</v>
-      </c>
-      <c r="AJ10" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/1 - Scenario Processing/Annual Service Area Demand Scenarios/Output/MI_AllFactors.xlsx
+++ b/1 - Scenario Processing/Annual Service Area Demand Scenarios/Output/MI_AllFactors.xlsx
@@ -116,22 +116,22 @@
     <t xml:space="preserve">40</t>
   </si>
   <si>
-    <t xml:space="preserve">125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">98</t>
-  </si>
-  <si>
-    <t xml:space="preserve">86</t>
-  </si>
-  <si>
-    <t xml:space="preserve">117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">91</t>
-  </si>
-  <si>
-    <t xml:space="preserve">80</t>
+    <t xml:space="preserve">250</t>
+  </si>
+  <si>
+    <t xml:space="preserve">196</t>
+  </si>
+  <si>
+    <t xml:space="preserve">171</t>
+  </si>
+  <si>
+    <t xml:space="preserve">235</t>
+  </si>
+  <si>
+    <t xml:space="preserve">183</t>
+  </si>
+  <si>
+    <t xml:space="preserve">159</t>
   </si>
   <si>
     <t xml:space="preserve">Base PC</t>
